--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value488.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value488.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8828932628842483</v>
+        <v>1.260507583618164</v>
       </c>
       <c r="B1">
-        <v>1.399793359291104</v>
+        <v>3.221070051193237</v>
       </c>
       <c r="C1">
-        <v>3.349414407576118</v>
+        <v>6.003250122070312</v>
       </c>
       <c r="D1">
-        <v>3.31795703170288</v>
+        <v>1.784162282943726</v>
       </c>
       <c r="E1">
-        <v>1.227642806230568</v>
+        <v>1.048321843147278</v>
       </c>
     </row>
   </sheetData>
